--- a/experiment/RQ2/RQ2_deepseek.xlsx
+++ b/experiment/RQ2/RQ2_deepseek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9575" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9575"/>
   </bookViews>
   <sheets>
     <sheet name="CVE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>CVE</t>
   </si>
@@ -50,6 +50,9 @@
 Function</t>
   </si>
   <si>
+    <t>Suspicious</t>
+  </si>
+  <si>
     <t>TP</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>DrugDealer()</t>
+  </si>
+  <si>
+    <t>seedMarket</t>
   </si>
   <si>
     <t>CVE-2018-19830</t>
@@ -1221,12 +1227,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:I18"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1241,10 +1247,11 @@
     <col min="9" max="10" width="9" style="2"/>
     <col min="11" max="11" width="25.7777777777778" style="2" customWidth="1"/>
     <col min="12" max="12" width="28.7777777777778" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="6"/>
+    <col min="13" max="13" width="12.3333333333333" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1263,45 +1270,47 @@
       <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="38" customHeight="1" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:13">
       <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>10</v>
+      </c>
       <c r="D3" s="2">
         <f>K3-B3</f>
         <v>1</v>
@@ -1318,15 +1327,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>12</v>
+      </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D17" si="0">K4-B4</f>
         <v>1</v>
@@ -1343,15 +1350,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>13</v>
+      </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1368,15 +1373,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>16</v>
+      </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1393,15 +1399,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:12">
       <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+        <v>18</v>
+      </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1418,15 +1422,13 @@
         <v>2</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>20</v>
+      </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1443,15 +1445,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>22</v>
+      </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1468,15 +1468,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+        <v>24</v>
+      </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1493,15 +1491,13 @@
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+        <v>26</v>
+      </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1518,15 +1514,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+        <v>28</v>
+      </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1543,15 +1537,13 @@
         <v>1</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+        <v>30</v>
+      </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1568,15 +1560,13 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+        <v>31</v>
+      </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1593,15 +1583,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+        <v>33</v>
+      </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1618,15 +1606,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+        <v>35</v>
+      </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1643,15 +1629,13 @@
         <v>1</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+        <v>36</v>
+      </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1668,15 +1652,13 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+        <v>37</v>
+      </c>
       <c r="D18" s="2">
         <f>SUM(D3:D17)</f>
         <v>16</v>
@@ -1696,7 +1678,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="e">
         <f>B18/(B18+C18)</f>
@@ -1713,7 +1695,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <f>B18/(B18+D18)</f>
@@ -1730,7 +1712,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="e">
         <f>2*B19*B20/(B19+B20)</f>
@@ -1746,13 +1728,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1765,7 +1748,7 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -1788,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1815,38 +1798,38 @@
     <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1870,12 +1853,12 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1899,12 +1882,12 @@
         <v>2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1928,12 +1911,12 @@
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1957,12 +1940,12 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1986,12 +1969,12 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2015,12 +1998,12 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2044,12 +2027,12 @@
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2073,12 +2056,12 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2102,12 +2085,12 @@
         <v>2</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2131,12 +2114,12 @@
         <v>2</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2160,12 +2143,12 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2189,12 +2172,12 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2218,12 +2201,12 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2247,12 +2230,12 @@
         <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2276,12 +2259,12 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2305,12 +2288,12 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2334,12 +2317,12 @@
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2363,15 +2346,13 @@
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+        <v>37</v>
+      </c>
       <c r="D21" s="1">
         <f>SUM(D3:D20)</f>
         <v>21</v>
@@ -2391,7 +2372,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="e">
         <f>B21/(B21+C21)</f>
@@ -2408,7 +2389,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
         <f>B21/(B21+D21)</f>
@@ -2425,7 +2406,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="e">
         <f>2*B22*B23/(B22+B23)</f>

--- a/experiment/RQ2/RQ2_deepseek.xlsx
+++ b/experiment/RQ2/RQ2_deepseek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9575" activeTab="1"/>
+    <workbookView windowWidth="12600" windowHeight="12880"/>
   </bookViews>
   <sheets>
     <sheet name="CVE" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 Mining24()</t>
   </si>
   <si>
-    <t xml:space="preserve">CVE-2018-19832	</t>
+    <t>CVE-2018-19832</t>
   </si>
   <si>
     <t>NETM()</t>
@@ -969,6 +969,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,24 +1230,24 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:I18"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.4444444444444" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.4454545454545" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.3363636363636" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11.4444444444444" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.8888888888889" style="2"/>
+    <col min="4" max="4" width="11.4454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.8909090909091" style="2"/>
     <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="12.8888888888889" style="2"/>
+    <col min="8" max="8" width="12.8909090909091" style="2"/>
     <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="25.7777777777778" style="2" customWidth="1"/>
-    <col min="12" max="12" width="28.7777777777778" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.7818181818182" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.7818181818182" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1300,19 +1307,35 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" s="2">
         <f>K3-B3</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <f>K3-E3</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <f>K3-H3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <v>1</v>
@@ -1325,19 +1348,35 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D17" si="0">K4-B4</f>
-        <v>1</v>
+        <f>K4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G17" si="1">K4-E4</f>
-        <v>1</v>
+        <f t="shared" ref="G4:G17" si="0">K4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J17" si="2">K4-H4</f>
-        <v>1</v>
+        <f t="shared" ref="J4:J17" si="1">K4-H4</f>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
@@ -1350,19 +1389,35 @@
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
       <c r="D5" s="2">
+        <f t="shared" ref="D4:D17" si="2">K5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <v>1</v>
@@ -1375,19 +1430,35 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
       <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <v>1</v>
@@ -1396,23 +1467,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:12">
+    <row r="7" ht="28" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>
@@ -1425,18 +1512,34 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K8" s="7">
@@ -1450,19 +1553,35 @@
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
         <v>1</v>
@@ -1475,19 +1594,35 @@
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
       <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -1500,18 +1635,34 @@
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K11" s="7">
@@ -1525,19 +1676,35 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
         <v>1</v>
@@ -1550,19 +1717,35 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
         <v>1</v>
@@ -1575,19 +1758,35 @@
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
       <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
         <v>1</v>
@@ -1600,19 +1799,35 @@
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="7">
         <v>1</v>
@@ -1625,19 +1840,35 @@
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
       <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -1650,19 +1881,35 @@
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
       <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
         <v>1</v>
@@ -1675,19 +1922,41 @@
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2">
+        <f>SUM(B3:B17)</f>
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(C3:C17)</f>
+        <v>3</v>
+      </c>
       <c r="D18" s="2">
         <f>SUM(D3:D17)</f>
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUM(E3:E17)</f>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
+        <f>SUM(F3:F17)</f>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ref="E18:K18" si="3">SUM(G3:G17)</f>
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="3"/>
@@ -1698,17 +1967,17 @@
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="e">
+      <c r="B19" s="2">
         <f>B18/(B18+C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="3" t="e">
+        <v>0.769230769230769</v>
+      </c>
+      <c r="E19" s="3">
         <f>E18/(E18+F18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="3" t="e">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="H19" s="3">
         <f>H18/(H18+I18)</f>
-        <v>#DIV/0!</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1717,32 +1986,32 @@
       </c>
       <c r="B20" s="2">
         <f>B18/(B18+D18)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E20" s="3">
         <f>E18/(E18+G18)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H20" s="3">
         <f>H18/(H18+J18)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="e">
+      <c r="B21" s="2">
         <f>2*B19*B20/(B19+B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="3" t="e">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="E21" s="3">
         <f>2*E19*E20/(E19+E20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="3" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="3">
         <f>2*H19*H20/(H19+H20)</f>
-        <v>#DIV/0!</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
@@ -1765,23 +2034,23 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="41.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.22222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.55555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.8909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.78181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21818181818182" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.66363636363636" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.55454545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.55454545454545" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.55454545454545" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7818181818182" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.66363636363636" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6636363636364" style="1" customWidth="1"/>
     <col min="12" max="12" width="27" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -1848,23 +2117,35 @@
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
       <c r="D3" s="2">
         <f>K3-B3</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
       <c r="G3" s="2">
         <f>K3-E3</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
       <c r="J3" s="2">
         <f>K3-H3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1873,27 +2154,39 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:12">
+    <row r="4" ht="28" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D20" si="0">K4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G20" si="1">K4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
       <c r="J4" s="2">
         <f t="shared" ref="J4:J20" si="2">K4-H4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>2</v>
@@ -1906,23 +2199,35 @@
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1935,20 +2240,32 @@
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1964,23 +2281,35 @@
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1993,20 +2322,32 @@
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2022,23 +2363,35 @@
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2051,23 +2404,35 @@
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2076,27 +2441,39 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:12">
+    <row r="11" ht="28" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>
@@ -2105,24 +2482,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:12">
+    <row r="12" ht="28" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -2138,23 +2527,35 @@
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -2167,23 +2568,35 @@
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2196,23 +2609,35 @@
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -2225,23 +2650,35 @@
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -2254,23 +2691,35 @@
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -2283,20 +2732,32 @@
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2312,23 +2773,35 @@
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -2341,20 +2814,32 @@
       <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2370,19 +2855,41 @@
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1">
+        <f>SUM(B3:B20)</f>
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUM(C3:C20)</f>
+        <v>3</v>
+      </c>
       <c r="D21" s="1">
         <f>SUM(D3:D20)</f>
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <f>SUM(E3:E20)</f>
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <f>SUM(F3:F20)</f>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
         <f>SUM(G3:G20)</f>
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <f>SUM(H3:H20)</f>
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
+        <f>SUM(I3:I20)</f>
+        <v>3</v>
       </c>
       <c r="J21" s="1">
         <f>SUM(J3:J20)</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K21" s="1">
         <f>SUM(K3:K20)</f>
@@ -2393,17 +2900,17 @@
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3" t="e">
+      <c r="B22" s="3">
         <f>B21/(B21+C21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="3" t="e">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22" s="3">
         <f>E21/(E21+F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="3" t="e">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="H22" s="3">
         <f>H21/(H21+I21)</f>
-        <v>#DIV/0!</v>
+        <v>0.823529411764706</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2412,32 +2919,32 @@
       </c>
       <c r="B23" s="3">
         <f>B21/(B21+D21)</f>
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E23" s="3">
         <f>E21/(E21+G21)</f>
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="H23" s="3">
         <f>H21/(H21+J21)</f>
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3" t="e">
+      <c r="B24" s="3">
         <f>2*B22*B23/(B22+B23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="3" t="e">
+        <v>0.769230769230769</v>
+      </c>
+      <c r="E24" s="3">
         <f>2*E22*E23/(E22+E23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="3" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="3">
         <f>2*H22*H23/(H22+H23)</f>
-        <v>#DIV/0!</v>
+        <v>0.736842105263158</v>
       </c>
     </row>
   </sheetData>
